--- a/reports/daily_templ.xlsx
+++ b/reports/daily_templ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Суточный отчет</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">NO2</t>
   </si>
   <si>
+    <t xml:space="preserve">NH3</t>
+  </si>
+  <si>
     <t xml:space="preserve">SO2</t>
   </si>
   <si>
@@ -55,10 +58,19 @@
     <t xml:space="preserve">CO</t>
   </si>
   <si>
+    <t xml:space="preserve">CH2O</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PM-2,5</t>
+  </si>
+  <si>
     <t xml:space="preserve">PM-10</t>
   </si>
   <si>
-    <t xml:space="preserve">PM-2,5</t>
+    <t xml:space="preserve">Пыль общая</t>
   </si>
   <si>
     <t xml:space="preserve">{d[i].values [i].pollution[i].time}</t>
@@ -70,6 +82,9 @@
     <t xml:space="preserve">{d[i].values [i].pollution[i].valueNO2}</t>
   </si>
   <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueNH3}</t>
+  </si>
+  <si>
     <t xml:space="preserve">{d[i].values [i].pollution[i].valueSO2}</t>
   </si>
   <si>
@@ -82,10 +97,19 @@
     <t xml:space="preserve">{d[i].values [i].pollution[i].valueCO}</t>
   </si>
   <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueCH2O}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valuePM1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valuePM25}</t>
+  </si>
+  <si>
     <t xml:space="preserve">{d[i].values [i].pollution[i].valuePM10}</t>
   </si>
   <si>
-    <t xml:space="preserve">{d[i].values [i].pollution[i].valuePM25}</t>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueTSP}</t>
   </si>
   <si>
     <t xml:space="preserve">{d[i].values [i].pollution[i+1].time}</t>
@@ -141,12 +165,14 @@
       <color rgb="FF00000A"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF00000A"/>
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,7 +237,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,11 +245,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -304,16 +338,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.8469387755102"/>
-    <col collapsed="false" hidden="false" max="9" min="2" style="0" width="12.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.280612244898"/>
+    <col collapsed="false" hidden="false" max="13" min="2" style="0" width="12.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.48469387755102"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -328,6 +363,10 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -343,6 +382,10 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -358,6 +401,10 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -367,7 +414,7 @@
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -385,58 +432,86 @@
       <c r="I4" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="6" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="G5" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="5"/>
+      <c r="C13" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="B2:M2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B3:M3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.659027777777778" bottom="0.659027777777778" header="0.39375" footer="0.39375"/>

--- a/reports/daily_templ.xlsx
+++ b/reports/daily_templ.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Суточный отчет</t>
   </si>
@@ -73,6 +73,30 @@
     <t xml:space="preserve">Пыль общая</t>
   </si>
   <si>
+    <t xml:space="preserve">бензол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">толуол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">этилбензол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">м,п-ксилол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">о-ксилол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">хлорбензол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">стирол</t>
+  </si>
+  <si>
+    <t xml:space="preserve">фенол</t>
+  </si>
+  <si>
     <t xml:space="preserve">{d[i].values [i].pollution[i].time}</t>
   </si>
   <si>
@@ -110,6 +134,30 @@
   </si>
   <si>
     <t xml:space="preserve">{d[i].values [i].pollution[i].valueTSP}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueC6H6}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueC7H8}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueC8H10}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueC8H10MP}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueC8H10O}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueC6H5Cl}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueC8H8}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{d[i].values [i].pollution[i].valueC6H5OH}</t>
   </si>
   <si>
     <t xml:space="preserve">{d[i].values [i].pollution[i+1].time}</t>
@@ -122,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -173,6 +221,12 @@
       <name val="Liberation Serif;Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00000A"/>
+      <name val="Liberation Serif;Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,7 +278,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -254,6 +308,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -338,17 +396,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5:M5"/>
+      <selection pane="topLeft" activeCell="U15" activeCellId="0" sqref="U15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.280612244898"/>
-    <col collapsed="false" hidden="false" max="13" min="2" style="0" width="12.1836734693878"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="8.48469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="30.2397959183673"/>
+    <col collapsed="false" hidden="false" max="21" min="2" style="0" width="11.7244897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.17857142857143"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -367,6 +425,14 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -386,6 +452,14 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
@@ -405,6 +479,14 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
@@ -444,74 +526,130 @@
       <c r="M4" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>29</v>
+        <v>37</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
+        <v>46</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
     </row>
     <row r="13" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="8"/>
+      <c r="C13" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="B2:U2"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B3:U3"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.39375" right="0.39375" top="0.659027777777778" bottom="0.659027777777778" header="0.39375" footer="0.39375"/>
